--- a/converter/data/xlsx/7.1. A SMJENA.XLSX
+++ b/converter/data/xlsx/7.1. A SMJENA.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="128">
   <si>
     <t>UTORAK</t>
   </si>
@@ -4097,6 +4097,72 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4120,72 +4186,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5271,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5310,95 +5310,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="631" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
-      <c r="K1" s="609"/>
-      <c r="L1" s="609"/>
-      <c r="M1" s="609"/>
-      <c r="N1" s="609"/>
-      <c r="O1" s="609"/>
-      <c r="P1" s="609"/>
-      <c r="Q1" s="609"/>
-      <c r="R1" s="609"/>
-      <c r="S1" s="609"/>
-      <c r="T1" s="609"/>
-      <c r="U1" s="609"/>
-      <c r="V1" s="609"/>
-      <c r="W1" s="609"/>
-      <c r="X1" s="609"/>
-      <c r="Y1" s="609"/>
-      <c r="Z1" s="609"/>
-      <c r="AA1" s="609"/>
-      <c r="AB1" s="609"/>
-      <c r="AC1" s="609"/>
-      <c r="AD1" s="609"/>
-      <c r="AE1" s="609"/>
-      <c r="AF1" s="609"/>
-      <c r="AG1" s="609"/>
-      <c r="AH1" s="609"/>
-      <c r="AI1" s="609"/>
-      <c r="AJ1" s="609"/>
+      <c r="B1" s="631"/>
+      <c r="C1" s="631"/>
+      <c r="D1" s="631"/>
+      <c r="E1" s="631"/>
+      <c r="F1" s="631"/>
+      <c r="G1" s="631"/>
+      <c r="H1" s="631"/>
+      <c r="I1" s="631"/>
+      <c r="J1" s="631"/>
+      <c r="K1" s="631"/>
+      <c r="L1" s="631"/>
+      <c r="M1" s="631"/>
+      <c r="N1" s="631"/>
+      <c r="O1" s="631"/>
+      <c r="P1" s="631"/>
+      <c r="Q1" s="631"/>
+      <c r="R1" s="631"/>
+      <c r="S1" s="631"/>
+      <c r="T1" s="631"/>
+      <c r="U1" s="631"/>
+      <c r="V1" s="631"/>
+      <c r="W1" s="631"/>
+      <c r="X1" s="631"/>
+      <c r="Y1" s="631"/>
+      <c r="Z1" s="631"/>
+      <c r="AA1" s="631"/>
+      <c r="AB1" s="631"/>
+      <c r="AC1" s="631"/>
+      <c r="AD1" s="631"/>
+      <c r="AE1" s="631"/>
+      <c r="AF1" s="631"/>
+      <c r="AG1" s="631"/>
+      <c r="AH1" s="631"/>
+      <c r="AI1" s="631"/>
+      <c r="AJ1" s="631"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="18">
       <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="610" t="s">
+      <c r="B2" s="632" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="611"/>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="612"/>
-      <c r="I2" s="613" t="s">
+      <c r="C2" s="633"/>
+      <c r="D2" s="633"/>
+      <c r="E2" s="633"/>
+      <c r="F2" s="633"/>
+      <c r="G2" s="633"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="635" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="611"/>
-      <c r="L2" s="611"/>
-      <c r="M2" s="611"/>
-      <c r="N2" s="611"/>
-      <c r="O2" s="612"/>
-      <c r="P2" s="610" t="s">
+      <c r="J2" s="633"/>
+      <c r="K2" s="633"/>
+      <c r="L2" s="633"/>
+      <c r="M2" s="633"/>
+      <c r="N2" s="633"/>
+      <c r="O2" s="634"/>
+      <c r="P2" s="632" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="611"/>
-      <c r="R2" s="611"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
-      <c r="U2" s="611"/>
-      <c r="V2" s="612"/>
-      <c r="W2" s="613" t="s">
+      <c r="Q2" s="633"/>
+      <c r="R2" s="633"/>
+      <c r="S2" s="633"/>
+      <c r="T2" s="633"/>
+      <c r="U2" s="633"/>
+      <c r="V2" s="634"/>
+      <c r="W2" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="611"/>
-      <c r="Y2" s="611"/>
-      <c r="Z2" s="611"/>
-      <c r="AA2" s="611"/>
-      <c r="AB2" s="611"/>
-      <c r="AC2" s="612"/>
-      <c r="AD2" s="614" t="s">
+      <c r="X2" s="633"/>
+      <c r="Y2" s="633"/>
+      <c r="Z2" s="633"/>
+      <c r="AA2" s="633"/>
+      <c r="AB2" s="633"/>
+      <c r="AC2" s="634"/>
+      <c r="AD2" s="636" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="615"/>
-      <c r="AF2" s="615"/>
-      <c r="AG2" s="615"/>
-      <c r="AH2" s="615"/>
-      <c r="AI2" s="615"/>
-      <c r="AJ2" s="616"/>
+      <c r="AE2" s="637"/>
+      <c r="AF2" s="637"/>
+      <c r="AG2" s="637"/>
+      <c r="AH2" s="637"/>
+      <c r="AI2" s="637"/>
+      <c r="AJ2" s="638"/>
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="16.5" thickBot="1">
@@ -6054,9 +6054,7 @@
       <c r="U12" s="502" t="s">
         <v>107</v>
       </c>
-      <c r="V12" s="140" t="s">
-        <v>79</v>
-      </c>
+      <c r="V12" s="140"/>
       <c r="W12" s="296"/>
       <c r="X12" s="379"/>
       <c r="Y12" s="500" t="s">
@@ -7813,42 +7811,42 @@
       <c r="A43" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="626"/>
-      <c r="C43" s="627"/>
+      <c r="B43" s="618"/>
+      <c r="C43" s="619"/>
       <c r="D43" s="146"/>
       <c r="E43" s="146"/>
       <c r="F43" s="146"/>
-      <c r="G43" s="637"/>
-      <c r="H43" s="638"/>
-      <c r="I43" s="628" t="s">
+      <c r="G43" s="629"/>
+      <c r="H43" s="630"/>
+      <c r="I43" s="620" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="629"/>
+      <c r="J43" s="621"/>
       <c r="K43" s="72"/>
       <c r="L43" s="107"/>
       <c r="M43" s="123"/>
-      <c r="N43" s="635"/>
-      <c r="O43" s="636"/>
-      <c r="P43" s="630" t="s">
+      <c r="N43" s="627"/>
+      <c r="O43" s="628"/>
+      <c r="P43" s="622" t="s">
         <v>112</v>
       </c>
-      <c r="Q43" s="632"/>
+      <c r="Q43" s="624"/>
       <c r="R43" s="123"/>
       <c r="S43" s="54"/>
       <c r="T43" s="123"/>
-      <c r="U43" s="635"/>
-      <c r="V43" s="636"/>
-      <c r="W43" s="630" t="s">
+      <c r="U43" s="627"/>
+      <c r="V43" s="628"/>
+      <c r="W43" s="622" t="s">
         <v>112</v>
       </c>
-      <c r="X43" s="631"/>
-      <c r="Y43" s="632"/>
+      <c r="X43" s="623"/>
+      <c r="Y43" s="624"/>
       <c r="Z43" s="31"/>
       <c r="AA43" s="124"/>
-      <c r="AB43" s="633"/>
-      <c r="AC43" s="634"/>
-      <c r="AD43" s="617"/>
-      <c r="AE43" s="618"/>
+      <c r="AB43" s="625"/>
+      <c r="AC43" s="626"/>
+      <c r="AD43" s="609"/>
+      <c r="AE43" s="610"/>
       <c r="AF43" s="160"/>
       <c r="AG43" s="182"/>
       <c r="AH43" s="182"/>
@@ -9393,49 +9391,49 @@
       <c r="A68" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="623"/>
-      <c r="C68" s="624"/>
-      <c r="D68" s="624"/>
-      <c r="E68" s="624"/>
-      <c r="F68" s="624"/>
-      <c r="G68" s="624"/>
-      <c r="H68" s="625"/>
-      <c r="I68" s="619" t="s">
+      <c r="B68" s="615"/>
+      <c r="C68" s="616"/>
+      <c r="D68" s="616"/>
+      <c r="E68" s="616"/>
+      <c r="F68" s="616"/>
+      <c r="G68" s="616"/>
+      <c r="H68" s="617"/>
+      <c r="I68" s="611" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="620"/>
-      <c r="K68" s="620"/>
-      <c r="L68" s="620"/>
-      <c r="M68" s="620"/>
-      <c r="N68" s="620"/>
-      <c r="O68" s="622"/>
-      <c r="P68" s="619" t="s">
+      <c r="J68" s="612"/>
+      <c r="K68" s="612"/>
+      <c r="L68" s="612"/>
+      <c r="M68" s="612"/>
+      <c r="N68" s="612"/>
+      <c r="O68" s="614"/>
+      <c r="P68" s="611" t="s">
         <v>123</v>
       </c>
-      <c r="Q68" s="620"/>
-      <c r="R68" s="620"/>
-      <c r="S68" s="620"/>
-      <c r="T68" s="620"/>
-      <c r="U68" s="620"/>
-      <c r="V68" s="622"/>
-      <c r="W68" s="619" t="s">
+      <c r="Q68" s="612"/>
+      <c r="R68" s="612"/>
+      <c r="S68" s="612"/>
+      <c r="T68" s="612"/>
+      <c r="U68" s="612"/>
+      <c r="V68" s="614"/>
+      <c r="W68" s="611" t="s">
         <v>120</v>
       </c>
-      <c r="X68" s="620"/>
-      <c r="Y68" s="620"/>
-      <c r="Z68" s="620"/>
-      <c r="AA68" s="620"/>
-      <c r="AB68" s="620"/>
-      <c r="AC68" s="622"/>
-      <c r="AD68" s="619" t="s">
+      <c r="X68" s="612"/>
+      <c r="Y68" s="612"/>
+      <c r="Z68" s="612"/>
+      <c r="AA68" s="612"/>
+      <c r="AB68" s="612"/>
+      <c r="AC68" s="614"/>
+      <c r="AD68" s="611" t="s">
         <v>25</v>
       </c>
-      <c r="AE68" s="620"/>
-      <c r="AF68" s="620"/>
-      <c r="AG68" s="620"/>
-      <c r="AH68" s="620"/>
-      <c r="AI68" s="620"/>
-      <c r="AJ68" s="621"/>
+      <c r="AE68" s="612"/>
+      <c r="AF68" s="612"/>
+      <c r="AG68" s="612"/>
+      <c r="AH68" s="612"/>
+      <c r="AI68" s="612"/>
+      <c r="AJ68" s="613"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
     </row>
@@ -9722,6 +9720,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="AD43:AE43"/>
     <mergeCell ref="AD68:AJ68"/>
     <mergeCell ref="W68:AC68"/>
@@ -9736,12 +9740,6 @@
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
